--- a/UTXO_Size.xlsx
+++ b/UTXO_Size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1F4151D-DFCF-45FA-A9FC-7BF2B0CB5C89}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F61DB0B-61BB-4F61-AF0C-DD2642E9C676}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{FB126318-3928-4B17-8276-C75154D58F98}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -271,10 +271,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -370,10 +370,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.104580927384077"/>
+          <c:x val="8.8617439304974774E-2"/>
           <c:y val="0.14545098039215687"/>
-          <c:w val="0.86486351706036746"/>
-          <c:h val="0.69347691832638569"/>
+          <c:w val="0.79872898818071403"/>
+          <c:h val="0.77077155210671133"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1256,15 +1256,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24402230971128608"/>
-          <c:y val="0.93382306623436773"/>
-          <c:w val="0.41574451480880864"/>
-          <c:h val="5.4348206474190731E-2"/>
+          <c:x val="0.91078675707031975"/>
+          <c:y val="0.41258346329897161"/>
+          <c:w val="8.3057324840764335E-2"/>
+          <c:h val="0.27174103237095365"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1907,7 +1907,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:colOff>527050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
@@ -2237,7 +2237,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
